--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32182-d78680-Reviews-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Magic-Mountain-Area.h5238.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1107 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r581533626-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>32182</t>
+  </si>
+  <si>
+    <t>78680</t>
+  </si>
+  <si>
+    <t>581533626</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>BEDBUGS!!roo</t>
+  </si>
+  <si>
+    <t>room 204- no smoking... Super tired family woke up eaten alive by the bugs in their beds!! NEVER AGAIN!! When front desk was called to ask for assistance... Clerk Erika was rude, unprofessional, probably over worked &amp; under paid (no justification to be rude to paying customers)...</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r569583573-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>569583573</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>Price was reasonable for a Thursday night, room was clean but didn't have that clean smell.  Check in was qucik and very unwelcoming, the person up front was just doing their job...didn't supply enough shampoo for two people or no ice bucket.  Parking was fine but don't recommended for any one handicapped or has bad knees because there are no elevators to the second floor rooms, just stairs including the ice machine which was one on the bottom floor.  Won't be ever reaerving at any of these hotels again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r550323014-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>550323014</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Don't Judge A Book By It's Cover!!</t>
+  </si>
+  <si>
+    <t>Based on reviews, I'd read online, I worked hard to cancel my reservation and go elsewhere, but management refused to give me a refund. I ended up staying here because I was "stuck", and man, was I pleasantly surprised!! This hotel was SO much better than any review I read, and SO much better than expected. It was quiet, clean, comfortable, and perfectly located for quick access to Magic Mountain, Wal-Mart, dining and shopping venues. For the price, this hotel was an excellent value. I would definately stay here again in the future.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r541028569-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>541028569</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Ready to be torn down 😟</t>
+  </si>
+  <si>
+    <t>I’m guessing they stopped doing any maintenance whatsoever on this building about 10 years back.  Each and every light in the exterior walkways was so dirty .... the management should be ashamed to charge money to stay here. There’s just no excuse for it to be this bad.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r535092676-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>535092676</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bed bugs! </t>
+  </si>
+  <si>
+    <t>Cleanish, and very dated. It is a place to sleep. The price was just right. You know you can't expect a lot for this price, so don't complain.  They do offer a free breakfast, but we didn't stay for that. Close to Magic Mountain and they let you do a really late check in if you stay late at the park.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r506627729-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>506627729</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>The David Lynch Experience</t>
+  </si>
+  <si>
+    <t>We needed an overnight near Cal Arts. The guy at the desk asked if I was traveling from Iceland. We entered the room, a drop of upstairs-airconditioner water rolling off the brim of my cap. The sofa was a beat-up sleigh-style sofa. Huge, comfortable, dark, not visibly stained but we knew, we knew. The dark carpet, still exuding fumes before the room's designated "non-smoking" status, a previous epoch. Through the thin walls I could discern the distinct tones of the adjacent rooms' ventilation systems. A gouge on the ceiling proved hypnotic, fascinating.Did I mention the wallpaper? Huh, maybe it was more like Barton Fink.Bathroom was clean, wifi works ok.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r504468246-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>504468246</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>My son was here last night for the weekend, when he got there he said the room smelled like mildew when he went into the room he said the carpet was wet and the ceiling had fell in! They had no other room to offer him all the hotels I. The area were filled so he had to sleep in his car! All they offered was a refund and they said it would be a few days before he can get it back!!! Stay away from this place should be condemned! It only gets a circle cause I had to put something in order to review!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r500100551-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>500100551</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting </t>
+  </si>
+  <si>
+    <t>So I saw the reviews and almost all of it seemed horrible so I was a bit worried to be honest ....well I got there and yes the building looks a bit outdated 2 of the employees (Asian girl and another man ) seemed rude. I requested a room downstairs but I came late (after check in time at 2)and ended up getting a room downstairs so I had to carry a big suitcase up stairs smh I had to request to get a receipt because one was never given to me I just Got a card and a piece of paper saying my my check in date and ect But honestly the room was clean I requested a "Non smoke" room with king size bed so I didn't get any odor or burn marks in any shape or form. I enjoyed myself the pool was a bit crowded with kids but it was fine. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>So I saw the reviews and almost all of it seemed horrible so I was a bit worried to be honest ....well I got there and yes the building looks a bit outdated 2 of the employees (Asian girl and another man ) seemed rude. I requested a room downstairs but I came late (after check in time at 2)and ended up getting a room downstairs so I had to carry a big suitcase up stairs smh I had to request to get a receipt because one was never given to me I just Got a card and a piece of paper saying my my check in date and ect But honestly the room was clean I requested a "Non smoke" room with king size bed so I didn't get any odor or burn marks in any shape or form. I enjoyed myself the pool was a bit crowded with kids but it was fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r497538372-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>497538372</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Awful!  Gross!</t>
+  </si>
+  <si>
+    <t>My son and I took a quick trip from Canada to SoCal to visit Magic Mountain.  We were looking for very simple accommodation.  Basically we wanted a clean, non-smoking, room with good AC and a clean bed....Frankly, I can sleep anywhere so a fancy bed makes no difference to me at all.  I booked the Rodeway, knowing that it was basic, no frills, and affordable.  By affordable I mean it was 20.00 cheaper per night than some of the hotels a bit closer to the park.Our non-smoking room smelled as though the previous guest was a chainsmoker and smoked in the room.  The walls, if not black from dirt, were yellow from smoke.  The counter tops had cigarette burns all over them.  The bedding had cigarette burn holes throughout.  The door frames, bathrooms, etc. were filthy.  I would not take off my socks at all because the floor was disgusting.  In fact, my white socks were black with dirt after walking with them in the room.  The shower/tub was falling apart as was the light fixture in the bathroom.  Electrical wire showing, etc.   The only positive was that the AC worked.  The breakfast that was included was basically some waffle irons and cereal.  I would NEVER stay here again.  I would have been better off sleeping in my car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>My son and I took a quick trip from Canada to SoCal to visit Magic Mountain.  We were looking for very simple accommodation.  Basically we wanted a clean, non-smoking, room with good AC and a clean bed....Frankly, I can sleep anywhere so a fancy bed makes no difference to me at all.  I booked the Rodeway, knowing that it was basic, no frills, and affordable.  By affordable I mean it was 20.00 cheaper per night than some of the hotels a bit closer to the park.Our non-smoking room smelled as though the previous guest was a chainsmoker and smoked in the room.  The walls, if not black from dirt, were yellow from smoke.  The counter tops had cigarette burns all over them.  The bedding had cigarette burn holes throughout.  The door frames, bathrooms, etc. were filthy.  I would not take off my socks at all because the floor was disgusting.  In fact, my white socks were black with dirt after walking with them in the room.  The shower/tub was falling apart as was the light fixture in the bathroom.  Electrical wire showing, etc.   The only positive was that the AC worked.  The breakfast that was included was basically some waffle irons and cereal.  I would NEVER stay here again.  I would have been better off sleeping in my car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r439594360-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>439594360</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Drive Past</t>
+  </si>
+  <si>
+    <t>Here's the lowdown!  First we booked 3 rooms (thru Expedia) 10 people total.  2 rooms, king beds are given 2 towels.  The third queen room (which was full beds) are given 3 towels for 4 people.  Every night, we have to go downstairs (&amp; Pray JOSH was not there, he's the RUDEST of all) and ask for more towels.  Don't you dare ask for an extra blanket, because you're only allowed 1 extra for the 2 beds.Fortunately our room didn't smell, could it be that I brought an air freshner with?  We're on  the 2nd floor, one minor earthquake &amp; we would have been on the ground!!  The stairways are slanted &amp; you bounce &amp; sink while walking on them or the walkway.  There's also no elevator,  so you have to walk past the "druggies" partying on the stairs when you come back.  Don't expect parking, semi trucks take up most of the lot.  The parking lot is super dark and does not feel safe at all.WIFI is available LOL.  You get one code per person per day (Don't let JOSH tell you the same code is good for your entire party &amp; entire stay).  BOTTEM LINE FIND ANOTHER PLACEMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Here's the lowdown!  First we booked 3 rooms (thru Expedia) 10 people total.  2 rooms, king beds are given 2 towels.  The third queen room (which was full beds) are given 3 towels for 4 people.  Every night, we have to go downstairs (&amp; Pray JOSH was not there, he's the RUDEST of all) and ask for more towels.  Don't you dare ask for an extra blanket, because you're only allowed 1 extra for the 2 beds.Fortunately our room didn't smell, could it be that I brought an air freshner with?  We're on  the 2nd floor, one minor earthquake &amp; we would have been on the ground!!  The stairways are slanted &amp; you bounce &amp; sink while walking on them or the walkway.  There's also no elevator,  so you have to walk past the "druggies" partying on the stairs when you come back.  Don't expect parking, semi trucks take up most of the lot.  The parking lot is super dark and does not feel safe at all.WIFI is available LOL.  You get one code per person per day (Don't let JOSH tell you the same code is good for your entire party &amp; entire stay).  BOTTEM LINE FIND ANOTHER PLACEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r435057131-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>435057131</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>GROSS!</t>
+  </si>
+  <si>
+    <t>Honestly the worst inn I've ever stayed at. You can tell they don't take care of this place, and don't wash the bedding. I would recommend finding a different place to stay. Not to mention the breakfast they say they have...waffle and cereal, that's it. Don't waste your money on it!!!!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r422967055-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>422967055</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Filthy rooms, cockroaches, dirty sheets and disgusting employees.</t>
+  </si>
+  <si>
+    <t>I know that bad reviews are fairly common for this property but I thought ehhh...how bad could it be?  It is by far the worst hotel/motel have ever been in.  Do not stay here no matter how cheap the rate is.  Not worth any price.  The place should be condemned.  Broken tile floors, filthy carpets, stained furniture, lamps are torn up and don't work.  Cockroaches, peeling walls, dirty sheets and towels with trash left on the floor.  I know that you work in a crap hole of a hotel but you could at least offer decent customer service.  Josh was sitting on the counter when I walked in and treated everyone with complete disregard.  Horrible employees at the front desk.  You should be ashamed of yourselves and embarrassed to not only work in a bait and switch disgusting motel but to act like complete rude dirt bags.  AVOID THIS PROPERTY AT ALL COSTS.  You can barely breath in their filthy rooms and basically tell you, its not their problem and they don't care.  We commiserated with numerous people staying there around us about how cheated they felt and many of them slept in cars rather than the stinky, scary rooms.  Pay $30.00 more and stay someplace decent.  This place really should be shut down.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I know that bad reviews are fairly common for this property but I thought ehhh...how bad could it be?  It is by far the worst hotel/motel have ever been in.  Do not stay here no matter how cheap the rate is.  Not worth any price.  The place should be condemned.  Broken tile floors, filthy carpets, stained furniture, lamps are torn up and don't work.  Cockroaches, peeling walls, dirty sheets and towels with trash left on the floor.  I know that you work in a crap hole of a hotel but you could at least offer decent customer service.  Josh was sitting on the counter when I walked in and treated everyone with complete disregard.  Horrible employees at the front desk.  You should be ashamed of yourselves and embarrassed to not only work in a bait and switch disgusting motel but to act like complete rude dirt bags.  AVOID THIS PROPERTY AT ALL COSTS.  You can barely breath in their filthy rooms and basically tell you, its not their problem and they don't care.  We commiserated with numerous people staying there around us about how cheated they felt and many of them slept in cars rather than the stinky, scary rooms.  Pay $30.00 more and stay someplace decent.  This place really should be shut down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r413185817-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>413185817</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>We were traveling and needed to stop for the night. We didn't want to pay a ton so we thought we would settle for this place. It's a shady place. I felt unsafe. There were several people hanging around outside. We walked in and the first thing we saw was a used tissue or paper towel on the floor by the a/c and door.  The curtains have holes in them.  The comforter looks and smells like it is from the seventies. It also has holes in it!  The couch also looks and smells like it is from the seventies. The tissue holder is falling apart. The bathtub hair stopper piece came off.  There are ceiling repairs in the bathroom that looked awful. The bed was not comfortable. I will not be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We were traveling and needed to stop for the night. We didn't want to pay a ton so we thought we would settle for this place. It's a shady place. I felt unsafe. There were several people hanging around outside. We walked in and the first thing we saw was a used tissue or paper towel on the floor by the a/c and door.  The curtains have holes in them.  The comforter looks and smells like it is from the seventies. It also has holes in it!  The couch also looks and smells like it is from the seventies. The tissue holder is falling apart. The bathtub hair stopper piece came off.  There are ceiling repairs in the bathroom that looked awful. The bed was not comfortable. I will not be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r401536930-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>401536930</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Not what we expected</t>
+  </si>
+  <si>
+    <t>My daughter-in-law, granddaughter and I went to a bridal shower for my soon-to-be granddaughter in California.  My son made the reservation through HotWire.  We asked for a non-smoking room with 2 beds on the ground floor..  We were given a smoking room with one bed!  My daughter-in-law went to the office where, after an hour, they "found" us a room for an additional fee!  Too be fair, the fine print on the reservation did say the motel has the right to choose your room and fees are non-refundable.  We were not aware of this agreement with Hotwire.  We got into our room and had to ask for cleaning supplies to wipe the dust off everything.  We went to the shower - thank goodness my daughter-in-law brought a steamer for our clothes as the iron was missing.  We hung the "Do not disturb" sign when we left, but somehow the iron fairy showed up while we were gone and put an iron in the holder.. Needless to say, we will not use Hotwire or stay at this Rodeway Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter-in-law, granddaughter and I went to a bridal shower for my soon-to-be granddaughter in California.  My son made the reservation through HotWire.  We asked for a non-smoking room with 2 beds on the ground floor..  We were given a smoking room with one bed!  My daughter-in-law went to the office where, after an hour, they "found" us a room for an additional fee!  Too be fair, the fine print on the reservation did say the motel has the right to choose your room and fees are non-refundable.  We were not aware of this agreement with Hotwire.  We got into our room and had to ask for cleaning supplies to wipe the dust off everything.  We went to the shower - thank goodness my daughter-in-law brought a steamer for our clothes as the iron was missing.  We hung the "Do not disturb" sign when we left, but somehow the iron fairy showed up while we were gone and put an iron in the holder.. Needless to say, we will not use Hotwire or stay at this Rodeway Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r400848847-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>400848847</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Hotel Needs Attention</t>
+  </si>
+  <si>
+    <t>This is one that I say "you get what you pay for".  The rooms was cheap, not only in cost but also in comfort.  It did the job for a one night stay but I wouldn't stay there any longer.  The staff was courteous but not overly friendly.  I'd skip the breakfast buffet and go across the street to Mike's Diner.  The food there was very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r391246518-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>391246518</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The place was ok for less than $100.  The lady in front desk was very friendly gave us information about nearest beach. decent breakfast! many stores around was great! lights out the parking lot. Our room needed some work done but for the price I paid it was ok</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r390873297-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>390873297</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely bad place to stay no matter how desperate </t>
+  </si>
+  <si>
+    <t>We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now...We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now I'm taking him to urgent care.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now...We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now I'm taking him to urgent care.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r390256355-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>390256355</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience!</t>
+  </si>
+  <si>
+    <t>Just a terrible experience from the start the lobby was not air conditioning I was sweating during check in for to room and wow just nasty! Then I said whatever then tried to get so rest and the phone keep ringing asking for different people! Not me. So wow never stay here not a good experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r381198332-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>381198332</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Low Expectations, Still Disappointed</t>
+  </si>
+  <si>
+    <t>Cleanliness: we found a key on the floor. It wasn't hidden in a corner or anything so this makes me doubt the quality of housecleaning. What else was left on the floor after housecleaning "cleaned"?. We also saw a few bugs on the ceiling.Repair: Curtains, chair cushions had holes and rips. Half of the lights/lamps in the room never turned on. Mattress: We booked a room with 2 queen mattresses but received a room with 2 extremely tiny (maybe a little larger than twin) mattresses. It was hard to fit our group in there! Mattress sizes are standard so this was a huge goof on the hotel's partBathroom: The shower head was awkwardly placed. I (a relatively short person at 5'5") had to bend down to wash my face in the shower. Breakfast: Waffle maker didn't work well. And waffles was all they had for breakfast. Absolutely no fruit or protein. Internet: Had to input internet code every time you opened a new link. Even if your phone went to sleep it disconnected from the internet. Definitely was not high speed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Cleanliness: we found a key on the floor. It wasn't hidden in a corner or anything so this makes me doubt the quality of housecleaning. What else was left on the floor after housecleaning "cleaned"?. We also saw a few bugs on the ceiling.Repair: Curtains, chair cushions had holes and rips. Half of the lights/lamps in the room never turned on. Mattress: We booked a room with 2 queen mattresses but received a room with 2 extremely tiny (maybe a little larger than twin) mattresses. It was hard to fit our group in there! Mattress sizes are standard so this was a huge goof on the hotel's partBathroom: The shower head was awkwardly placed. I (a relatively short person at 5'5") had to bend down to wash my face in the shower. Breakfast: Waffle maker didn't work well. And waffles was all they had for breakfast. Absolutely no fruit or protein. Internet: Had to input internet code every time you opened a new link. Even if your phone went to sleep it disconnected from the internet. Definitely was not high speed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r373881410-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>373881410</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>A bed for the night</t>
+  </si>
+  <si>
+    <t>This was very basic, no frills lodging. A pretty good value for a bed for the night, though I would be very disappointed to pay any more. It was quiet enough, though we were placed in the "back building" which we were initially happy about until we saw that there were MANY trucks there parked for the night, with generators running. This did not disturb us in the end. The parking was well lit, and seemed safe enough. A very basic breakfast available in the morning. Decor is well worn.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r373430744-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>373430744</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Would not return</t>
+  </si>
+  <si>
+    <t>Card reader did not work on the door.  Front desk said keep trying. It took us approx 10 times each time we tried to enter room.  Towels and sheets clean but rest of room very shabby and dirty with stains, torn bedspread, exposed safety pin sticking out of bed skirt. Room next door was smoking, so we had plenty of odor.  Continental breakfast was very bare bones compared to similar hotels.  The only good thing about this place is proximity to Magic Mountain if you need a crash pad.  I wish I would have spent a little more for better quality.  Plenty of restaurant choices nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r356132428-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>356132428</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Overnight stop off &amp; six flags - it is what it is</t>
+  </si>
+  <si>
+    <t>We stopped off here on the way to Yosemite, and also to visit Six Flags Magic Mountain which is only 5 miles south. It served it's purpose.Castaic isn't the prettiest of places, more of a truck stop really. But this motel suited our needs, the room was clean &amp; the staff were very friendly and accommodating! I guess you could say the room was a bit dated, but the beds were comfortable &amp; I couldn't fault it.The only issue I could see was that we were in a room on the road side, and there were lorries pulling in until quite late into the night. Still didn't affect sleep quality too much. The room was secure enough, chain and deadbolt, and we got parked right outside.Breakfast was provided and was a little simple with little choice but we weren't expecting an extravagant spread from a simple motor hotel! From reading some of the other reviews, I think people just like to complain about things.We did visit the lake which is only a 5 minute drive away and it was very lovely!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We stopped off here on the way to Yosemite, and also to visit Six Flags Magic Mountain which is only 5 miles south. It served it's purpose.Castaic isn't the prettiest of places, more of a truck stop really. But this motel suited our needs, the room was clean &amp; the staff were very friendly and accommodating! I guess you could say the room was a bit dated, but the beds were comfortable &amp; I couldn't fault it.The only issue I could see was that we were in a room on the road side, and there were lorries pulling in until quite late into the night. Still didn't affect sleep quality too much. The room was secure enough, chain and deadbolt, and we got parked right outside.Breakfast was provided and was a little simple with little choice but we weren't expecting an extravagant spread from a simple motor hotel! From reading some of the other reviews, I think people just like to complain about things.We did visit the lake which is only a 5 minute drive away and it was very lovely!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r346311023-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>346311023</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Place to get out of the rain</t>
+  </si>
+  <si>
+    <t>Ended up driving much later than intended and got into heavy rain on I-5.  Got off and found this motel that looked decent from outside.  Was travelling with my 92 year old father and they had a room near office on ground floor so we booked it.  Carpet was completely worn out, place smelled bad, was noisy all night and dirty.  Had we not been so tired would have left but we toughed it out .  Should be avoided if at all possible.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r323195454-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>323195454</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>Glad I cancelled reservation and did not have to stay.</t>
+  </si>
+  <si>
+    <t>I was not able to stay at the Rodeway Inn after all. After going through a lot of difficulty in canceling my reservation, I am glad that I did not stay there. The difficulty of contacting someone to cancel my reservation was evidence that there is poor management at the Rodeway Inn. I got lucky that I finally got a hold of the front desk to cancel my reservation well before the cutoff time. I did not realize how bad the Rodeway Inn is until I read the reviews.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r319812406-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>319812406</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Old furniture</t>
+  </si>
+  <si>
+    <t>Old accommodation but clean.  The breakfast was limited, there was waffles but no pastries or yogurt. Also limited seating in the breakfast area.. Had trouble with the card key working, had to have the card reprogrammed</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r294138325-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>294138325</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Stay Here in a Pinch</t>
+  </si>
+  <si>
+    <t>I arrived late at night and the other major motel was already fully booked, so I tried the Rodeway down the street.  The footprint of the motel is very confusing, the rooms are extremely dated, including the old (not flat screen) TVs.  The toilet was installed at an angle, not perpendicular to the wall.  The breakfast menu wasn't that exciting either. Waffles or toast, and corn flakes or cocopuffs.  That did cut down on decision making. Not that great a value either. I paid around $100 including taxes for what should have been a $65 room.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r292211680-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>292211680</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a room, nothing special </t>
+  </si>
+  <si>
+    <t>We just stopped by for a cheap overnight stay. And well, you get what you pay for. For $85 bucks it's a bit pricey, for a cheap motel. A double bed that's a full size. You can actually feel the springs poking at your back. Its more like a cheap cot, then a mattress. The toilet bowl lid was stained yellow and smelled of underarm pit. Yuk! The bath tub was a bit scary, because the paint was chipping off in large pieces. So you couldn't take a bath, if you wanted to. Because you could possibly cut yourself. The free breakfast was a bust. They only had bread/toast, 2 kinds of cold ceral, 1 waffle maker, (which took forever to wait for since there was a line) orange juice and coffee. So it wasn't nothing special.But on the upside, the was bedroom area was clean. (A bit dated but okay) The towels were bleached white, so they were clean. Its ok, if you got nowhere else to go. But I wouldn't recommend it. MoreShow less</t>
+  </si>
+  <si>
+    <t>We just stopped by for a cheap overnight stay. And well, you get what you pay for. For $85 bucks it's a bit pricey, for a cheap motel. A double bed that's a full size. You can actually feel the springs poking at your back. Its more like a cheap cot, then a mattress. The toilet bowl lid was stained yellow and smelled of underarm pit. Yuk! The bath tub was a bit scary, because the paint was chipping off in large pieces. So you couldn't take a bath, if you wanted to. Because you could possibly cut yourself. The free breakfast was a bust. They only had bread/toast, 2 kinds of cold ceral, 1 waffle maker, (which took forever to wait for since there was a line) orange juice and coffee. So it wasn't nothing special.But on the upside, the was bedroom area was clean. (A bit dated but okay) The towels were bleached white, so they were clean. Its ok, if you got nowhere else to go. But I wouldn't recommend it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r269684016-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>269684016</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Least expensive, clean, safe</t>
+  </si>
+  <si>
+    <t>What more do I need?  This isn't a resort vacation. I need a bed, toilet and shower. Least expensive near Magic Mountain. And wifi and breakfast is included. Have to figure that in to the value. I think this will be my "go to" place every 6 weeks when I come to CA to visit my kids.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r263156257-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>263156257</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for....</t>
+  </si>
+  <si>
+    <t>I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but...I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but it is obvious there is a lack of investment in the property that is a little alarming.  The price was right- and you get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but...I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but it is obvious there is a lack of investment in the property that is a little alarming.  The price was right- and you get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r262102186-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>262102186</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Not so bad</t>
+  </si>
+  <si>
+    <t>I am sitting in room 121 right now. When I checked in yesterday, the front desk clerk was very friendly and efficient. I went to my room and ran into a young lady who was VERY friendly. I think she was a working girl, but she didn't offer anything, so not sure. The Russian gents in tge room next door did manage to find a working girl though.My room is clean. The bedding is very clean. The room smells of some cleaner that most of these budget motels use. Not too pleasant. My room has a coffee machine and an iron. This is an area of truck stops, and as such you would expect noise, but suprisingly it was pretty quiet in my room. There are a lot of foid options within easy walking distance. Checkout is at noon! Free breakfast including waffles, cereal, toast, fruit juice and coffee.If you are expecting luxury, head on down the road. If you are looking for economy, this may be your place. Just for information, I stay in hotels and motels on business about 250 nights a year. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I am sitting in room 121 right now. When I checked in yesterday, the front desk clerk was very friendly and efficient. I went to my room and ran into a young lady who was VERY friendly. I think she was a working girl, but she didn't offer anything, so not sure. The Russian gents in tge room next door did manage to find a working girl though.My room is clean. The bedding is very clean. The room smells of some cleaner that most of these budget motels use. Not too pleasant. My room has a coffee machine and an iron. This is an area of truck stops, and as such you would expect noise, but suprisingly it was pretty quiet in my room. There are a lot of foid options within easy walking distance. Checkout is at noon! Free breakfast including waffles, cereal, toast, fruit juice and coffee.If you are expecting luxury, head on down the road. If you are looking for economy, this may be your place. Just for information, I stay in hotels and motels on business about 250 nights a year. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r228234707-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>228234707</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DON'T STAY HERE!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is a dump, The shower head is disgusting!! Forgot my pillow in the room the housekeeper didn't turn it in!!! So if you have to stay here please don't leave anything behind!! The management down to the housekeepers NOT TRUSTWORTHY!! </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r219930023-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>219930023</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>It's cheap and it gets the job done. Free Waffles!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stay here every time we go to Six Flags. Its the cheapest in the Six Flags area and it comes with the waffle maker in the morning. Its about as basic as you're going to get. Its safe, beds are hard, smells kind of smokey. Its about a step down from a Motel 6, maybe about the same (I've seen some nice motel 6's in my day). But if you want to focus on just using it as a place to sleep it serves it's purpose. If you are bringing kids and want a pool and a nice day in at the hotel then this is not the hotel for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stay here every time we go to Six Flags. Its the cheapest in the Six Flags area and it comes with the waffle maker in the morning. Its about as basic as you're going to get. Its safe, beds are hard, smells kind of smokey. Its about a step down from a Motel 6, maybe about the same (I've seen some nice motel 6's in my day). But if you want to focus on just using it as a place to sleep it serves it's purpose. If you are bringing kids and want a pool and a nice day in at the hotel then this is not the hotel for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r218117138-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>218117138</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Nice place if a little dated</t>
+  </si>
+  <si>
+    <t>This place was my original choice in Castaic, but ended up full before I could check in. When I moved there the following night I found it to be clean, a very spacious room and a well maintained pool area. A stark contrast from the day's inn down the street. The usual "continental breakfast" was waffles, toast and cereal, no fruit or other baked goods. Not a fancy place, but comfortable and inexpensive.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r188379094-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>188379094</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>DON'T WASTE YOUR MONEY NOR TIME!!!</t>
+  </si>
+  <si>
+    <t>I do not see how Magic Mountain is allowing this hotel to represent them with there name tag. The hotel is horrible, I MEAN HORRIBLE!! We had kids with us and the bed they slept in had burnt blanket holes in them we didn't notice till the kids pointed that out. So we asked receptionist for another blanket and pillow. I spread the other blanket out it had even more burnt holes in them...REALLY!! The bathroom was just the nastiest thing i have ever saw. I did not let anyone get in that shower. It was so stained with who knows what. The bathroom door seems someone had punched a whole in it and they tried to plaster it back up with a horrible job. I could go on and on, but just not worth the time. Since it was so late at night we had no choice but to put the kids down and sleep and wake up to get the hell out of this hotel. Now for breakfast, it consisted of 1 waffle machine, some bread for toast and cereal. We just ate a waffle and left it at that. I should of took pics to show the horribleness of hotel, I was so tired and fed up, just wanted to get out of there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I do not see how Magic Mountain is allowing this hotel to represent them with there name tag. The hotel is horrible, I MEAN HORRIBLE!! We had kids with us and the bed they slept in had burnt blanket holes in them we didn't notice till the kids pointed that out. So we asked receptionist for another blanket and pillow. I spread the other blanket out it had even more burnt holes in them...REALLY!! The bathroom was just the nastiest thing i have ever saw. I did not let anyone get in that shower. It was so stained with who knows what. The bathroom door seems someone had punched a whole in it and they tried to plaster it back up with a horrible job. I could go on and on, but just not worth the time. Since it was so late at night we had no choice but to put the kids down and sleep and wake up to get the hell out of this hotel. Now for breakfast, it consisted of 1 waffle machine, some bread for toast and cereal. We just ate a waffle and left it at that. I should of took pics to show the horribleness of hotel, I was so tired and fed up, just wanted to get out of there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r182214263-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>182214263</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!</t>
+  </si>
+  <si>
+    <t>This, without question, was the worst hotel we have stayed at in The U.S. and maybe ever. The location isn't the best but then you are where you are. The room however was dirty, including playboy thong underwear left by a previous guest. Housekeeping had apparently dumped a bucket of dirty cleaning water into the sink and fail to rinse it out. The carpet was filthy and the drapes were hanging off the hook.In order to escape the dismal surroundings of the room we took a bottle of wine to the pool area and sat on poorly maintained patio furniture. After a glass of wine the world seems to calm down but we were rudely reminded of our location when a RAT ran under our table and into the bushes next to the fence. Unfortunately we didn't read the reviews on this and other travel sites before staying here. The vast majority of the reviews tell pretty much the same tale. This was my first, and probably last, stay at a Rodeway Inn. Choice Hotels must get it's name off this facility ASAP.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This, without question, was the worst hotel we have stayed at in The U.S. and maybe ever. The location isn't the best but then you are where you are. The room however was dirty, including playboy thong underwear left by a previous guest. Housekeeping had apparently dumped a bucket of dirty cleaning water into the sink and fail to rinse it out. The carpet was filthy and the drapes were hanging off the hook.In order to escape the dismal surroundings of the room we took a bottle of wine to the pool area and sat on poorly maintained patio furniture. After a glass of wine the world seems to calm down but we were rudely reminded of our location when a RAT ran under our table and into the bushes next to the fence. Unfortunately we didn't read the reviews on this and other travel sites before staying here. The vast majority of the reviews tell pretty much the same tale. This was my first, and probably last, stay at a Rodeway Inn. Choice Hotels must get it's name off this facility ASAP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r182160660-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>182160660</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Old Hotel</t>
+  </si>
+  <si>
+    <t>Pictures look great, "BUT"  I would advise spend the extra money and go down the freeway a couple more miles.  The hotel was old, parking sucked and smelled like cigarettes for a nonsmoking room.  What was up with the camera in the corner of the room? Yes a camera... Bedding old, pillows flat, furniture worn out, old bath room and counter tops, truck stop special.  The only nice thing I would really say is there was lots of hot water.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r171671834-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>171671834</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here unless you're desperate</t>
+  </si>
+  <si>
+    <t>We had the misfortune of spending one sleepless night here last weekend.  We were in LA on sat night and could not get a room.  I called choice hotels looking for a comfort inn or qualilty inn, but nothing to be found.  The representive found me this room and since it was late and we were desperate we took it.  If I had read these other reviews first, we would have just slept in our car.  The room was filthy.  The carpet and the mattresses were old and dirty, and the tub was so disgusting that none of us even showered. I don't know if all Roadway Inns are this bad since I never stayed in one before, but I sure won't try another one to find out.  I am surprised that Choice Hotel brands even endorses this place.  Usually we get a really nice room by calling them.  The only good thing I can say is that I watched the maid strip the beds right down to the mattress [including the comforter-which not all hotels wash every day] so at least the sheets were clean.  Still didn't make me feel much better seeing how these sheets were put back on a filthy mattress.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We had the misfortune of spending one sleepless night here last weekend.  We were in LA on sat night and could not get a room.  I called choice hotels looking for a comfort inn or qualilty inn, but nothing to be found.  The representive found me this room and since it was late and we were desperate we took it.  If I had read these other reviews first, we would have just slept in our car.  The room was filthy.  The carpet and the mattresses were old and dirty, and the tub was so disgusting that none of us even showered. I don't know if all Roadway Inns are this bad since I never stayed in one before, but I sure won't try another one to find out.  I am surprised that Choice Hotel brands even endorses this place.  Usually we get a really nice room by calling them.  The only good thing I can say is that I watched the maid strip the beds right down to the mattress [including the comforter-which not all hotels wash every day] so at least the sheets were clean.  Still didn't make me feel much better seeing how these sheets were put back on a filthy mattress.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r169363951-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>169363951</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Keep looking there is better</t>
+  </si>
+  <si>
+    <t>Don't even think that it's just a night.  Keep looking there is better and more affordable. There are blood stains all over the rooms, beds and linens. Air conditioners don't work. Lobby looks cleans but smells awful. Food not worth the risk. Like I said keep looking don't stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r164336007-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>164336007</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Very Sleep-able</t>
+  </si>
+  <si>
+    <t>If you want a clean place to sleep with good customer service at a price under $100 (most nights, I paid $72 after AAA discount), this is the place. 
+Check-in was fast and pretty friendly. Mike was very kind and welcomed our last minute stay during the late night. We got room 116 and it was clean and smelled fresh. There was no blood or other body fluid that I could see first hand but there was a large puddle of water in the restroom. It was very late and we had no plans to sleep in the restroom so we didn't bother to call to complain. The room was a good size and came with the common amenities but did not have a fridge or microwave. We were doing our "room check" for any creepy things and we noticed a little box in the corner, a little concerned I checked it out to find it was a thermostat of some sort. The sheets were clean and the pillows were fine. It was a very comfortable sleep, quiet, dark and the AC was a bit loud but worked well. 
+My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice,...If you want a clean place to sleep with good customer service at a price under $100 (most nights, I paid $72 after AAA discount), this is the place. Check-in was fast and pretty friendly. Mike was very kind and welcomed our last minute stay during the late night. We got room 116 and it was clean and smelled fresh. There was no blood or other body fluid that I could see first hand but there was a large puddle of water in the restroom. It was very late and we had no plans to sleep in the restroom so we didn't bother to call to complain. The room was a good size and came with the common amenities but did not have a fridge or microwave. We were doing our "room check" for any creepy things and we noticed a little box in the corner, a little concerned I checked it out to find it was a thermostat of some sort. The sheets were clean and the pillows were fine. It was a very comfortable sleep, quiet, dark and the AC was a bit loud but worked well. My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice, there was also a selection of cereal and other juices. The eating area was clean and had plenty of space. Ice was free and the pool was heated and also clean. Check-out was very fast and the man at the counter seemed genuinely concerned that a pipe was broken and leaking in our room. He was very cordial and checked me out quickly. A pair of shoes my son left in the room were put aside and held for the 9 hours it took for me to pick up. I appreciated the staff making the effort to find them and see that they were returned. This place is located across the street from a fabulous diner called Mike's that closes at 10, check it out. The parking is a little tight but ample. I can recommend if you're on a budget and aren't seeking luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>If you want a clean place to sleep with good customer service at a price under $100 (most nights, I paid $72 after AAA discount), this is the place. 
+Check-in was fast and pretty friendly. Mike was very kind and welcomed our last minute stay during the late night. We got room 116 and it was clean and smelled fresh. There was no blood or other body fluid that I could see first hand but there was a large puddle of water in the restroom. It was very late and we had no plans to sleep in the restroom so we didn't bother to call to complain. The room was a good size and came with the common amenities but did not have a fridge or microwave. We were doing our "room check" for any creepy things and we noticed a little box in the corner, a little concerned I checked it out to find it was a thermostat of some sort. The sheets were clean and the pillows were fine. It was a very comfortable sleep, quiet, dark and the AC was a bit loud but worked well. 
+My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice,...If you want a clean place to sleep with good customer service at a price under $100 (most nights, I paid $72 after AAA discount), this is the place. Check-in was fast and pretty friendly. Mike was very kind and welcomed our last minute stay during the late night. We got room 116 and it was clean and smelled fresh. There was no blood or other body fluid that I could see first hand but there was a large puddle of water in the restroom. It was very late and we had no plans to sleep in the restroom so we didn't bother to call to complain. The room was a good size and came with the common amenities but did not have a fridge or microwave. We were doing our "room check" for any creepy things and we noticed a little box in the corner, a little concerned I checked it out to find it was a thermostat of some sort. The sheets were clean and the pillows were fine. It was a very comfortable sleep, quiet, dark and the AC was a bit loud but worked well. My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice, there was also a selection of cereal and other juices. The eating area was clean and had plenty of space. Ice was free and the pool was heated and also clean. Check-out was very fast and the man at the counter seemed genuinely concerned that a pipe was broken and leaking in our room. He was very cordial and checked me out quickly. A pair of shoes my son left in the room were put aside and held for the 9 hours it took for me to pick up. I appreciated the staff making the effort to find them and see that they were returned. This place is located across the street from a fabulous diner called Mike's that closes at 10, check it out. The parking is a little tight but ample. I can recommend if you're on a budget and aren't seeking luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r158588018-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>158588018</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>bloody room</t>
+  </si>
+  <si>
+    <t>saw a photo on tripadvisor for the Rodeway Inn castaic only after checking in of a blood soaked boxspring.  Sure enough we looked at the terribly old bed and there was blood lot's of dried blood on our boxspring. Looking at the ceiling looked as though there was lot's of blood all over the ceiling. I think there was suicide or murder. Any rate the health dept. needs to shut this place down...</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r158283966-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>158283966</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Don't bother!!</t>
+  </si>
+  <si>
+    <t>Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on....Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on.  It was noisy.  As for the continental breakfast,  toast, ceral, waffles, the end...  my trip was planned for four days, I stayed 2 checked out, and went up the street to the Days Inn and checked in. In my research of where to stay when going to Six Flags Magic Mountain, I would say Days inn Castaic, or Comfort Inn Stevenson Ranch..  Forget about this one...    MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on....Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on.  It was noisy.  As for the continental breakfast,  toast, ceral, waffles, the end...  my trip was planned for four days, I stayed 2 checked out, and went up the street to the Days Inn and checked in. In my research of where to stay when going to Six Flags Magic Mountain, I would say Days inn Castaic, or Comfort Inn Stevenson Ranch..  Forget about this one...    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r145933715-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>145933715</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>To bad there is not a minus rating.  Do not, I repeat DO NOT subject yourself to the filth unless that is your way of living.  The carpet looked as if it had every kind of matter on it.  The curtains barley hung on the window with holes in them.  As for the bed....it felt as if you were sleeping on box springs.  If we didn't catch something from this place it will be a miracle.  Take my advice and spend a little more.  This was a true rip off, even for a budget motel.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r130134525-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>130134525</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Stay here and get discount tickets for Six Flags</t>
+  </si>
+  <si>
+    <t>I stayed at the Rodeway Inn for one night before spending a day at Six Flags Magic Mountain. The motel is not in the immediate vicinity of the park. It is a 10 minute drive from Castaic to Six Flags. The motel seemed to be frequented mostly by truck drivers and contractors. All the businesses on that street seem to cater to that clientel. Registered guests at the Rodeway Inn can purchase Six Flags tickets for 31$ instead of the 61$ due at the park box office. That is a good deal. The motel itself has seen better days. The building is old and it shows, despite all maintenance and cleaning efforts. My room was spaceous with a little seating area, had a big screen tv and plenty of electrical outlets for computers and chargers. The AC unit was the loudest I have ever heard. Luckily the night was cool enough to sleep without AC. Sleep quality, cleanliness, breakfast, staff friendliness...everything was ok for a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the Rodeway Inn for one night before spending a day at Six Flags Magic Mountain. The motel is not in the immediate vicinity of the park. It is a 10 minute drive from Castaic to Six Flags. The motel seemed to be frequented mostly by truck drivers and contractors. All the businesses on that street seem to cater to that clientel. Registered guests at the Rodeway Inn can purchase Six Flags tickets for 31$ instead of the 61$ due at the park box office. That is a good deal. The motel itself has seen better days. The building is old and it shows, despite all maintenance and cleaning efforts. My room was spaceous with a little seating area, had a big screen tv and plenty of electrical outlets for computers and chargers. The AC unit was the loudest I have ever heard. Luckily the night was cool enough to sleep without AC. Sleep quality, cleanliness, breakfast, staff friendliness...everything was ok for a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r127501554-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>127501554</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Great little town</t>
+  </si>
+  <si>
+    <t>First stop in Castaic, a nice surprise. Just a dot on the map but lots there. Several motels and restaurants. The Rodeway Inn was comfortable and more than adequate, a comfortable stopover. Left a movie player in the room, phoned them two days later and they had it in the office, we picked it up on the way back three weeks later.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r121032498-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>121032498</t>
+  </si>
+  <si>
+    <t>11/25/2011</t>
+  </si>
+  <si>
+    <t>Terrible sums it up nicely</t>
+  </si>
+  <si>
+    <t>Nasty.  The carpet gives your clean feet the heebee-jeebies.  The bed is peculiarly both hard and lumpy. Pillows are 1 inch thick and made of a smelly foam-like material.  It's your worst Motel 6 experience recreated at twice the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r117202322-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>117202322</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>NEVER!</t>
+  </si>
+  <si>
+    <t>I have NEVER been in a worse hotel &amp; in my 60's, I've seen a few. It wasn't just one room we checked several but it was so late &amp; we were so tired we had to stay. It was SO dirty &amp; poorly kept we were afraid we'd leave with bugs on us. Took pictures to share with the management but they were not impressed. We should have slept in the car. My advice to you.....drive on!!!Wish I'd kept the photo's to add to this review but they were so disgusting I had to get them out of my computer.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r115636780-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>115636780</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Do NOT stay here!!!!! Awful!!! Scary!!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I checked in last night at 9:30pm, we were tired and ready to go to bed as soon as we checked in. While carrying our luggage to our room we noticed a very sketchy looking man in the parking lot, who looked like just did a drug deal. The door to his hotel room was wide open and completely trashed. It looks like he has lived there for months. We walked very fast upstairs to our room, and were welcomed by a group of men that just stared us down as we hurried in our room with scowls on their faces. We felt like we had just trespassed into gang territory. Not being familiar with the area did not help our comfort level.
+The room was decently clean, but more like a motel. There were multiple deadbolts on the door. We felt very unsafe being there. We continued to hear people outside our room, and then the sound of keys being dragged on the metal railing, we felt like it was a signal (or something) that we were going to be robbed. 
+We stayed for an hour before packing up our stuff, shaking, and compacted our luggage so we only had one trip out in fear we could be attacked on our way out.
+I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular...My husband and I checked in last night at 9:30pm, we were tired and ready to go to bed as soon as we checked in. While carrying our luggage to our room we noticed a very sketchy looking man in the parking lot, who looked like just did a drug deal. The door to his hotel room was wide open and completely trashed. It looks like he has lived there for months. We walked very fast upstairs to our room, and were welcomed by a group of men that just stared us down as we hurried in our room with scowls on their faces. We felt like we had just trespassed into gang territory. Not being familiar with the area did not help our comfort level.The room was decently clean, but more like a motel. There were multiple deadbolts on the door. We felt very unsafe being there. We continued to hear people outside our room, and then the sound of keys being dragged on the metal railing, we felt like it was a signal (or something) that we were going to be robbed. We stayed for an hour before packing up our stuff, shaking, and compacted our luggage so we only had one trip out in fear we could be attacked on our way out.I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular instance for the man at the front desk.If it hadn't been so late, and being so tired we would have noticed the very trashy area with truckers everywhere. Do NOT stay here. Best Western or Holiday Inn are great places to go even closer to Magic Mountain without fearing for your life.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My husband and I checked in last night at 9:30pm, we were tired and ready to go to bed as soon as we checked in. While carrying our luggage to our room we noticed a very sketchy looking man in the parking lot, who looked like just did a drug deal. The door to his hotel room was wide open and completely trashed. It looks like he has lived there for months. We walked very fast upstairs to our room, and were welcomed by a group of men that just stared us down as we hurried in our room with scowls on their faces. We felt like we had just trespassed into gang territory. Not being familiar with the area did not help our comfort level.
+The room was decently clean, but more like a motel. There were multiple deadbolts on the door. We felt very unsafe being there. We continued to hear people outside our room, and then the sound of keys being dragged on the metal railing, we felt like it was a signal (or something) that we were going to be robbed. 
+We stayed for an hour before packing up our stuff, shaking, and compacted our luggage so we only had one trip out in fear we could be attacked on our way out.
+I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular...My husband and I checked in last night at 9:30pm, we were tired and ready to go to bed as soon as we checked in. While carrying our luggage to our room we noticed a very sketchy looking man in the parking lot, who looked like just did a drug deal. The door to his hotel room was wide open and completely trashed. It looks like he has lived there for months. We walked very fast upstairs to our room, and were welcomed by a group of men that just stared us down as we hurried in our room with scowls on their faces. We felt like we had just trespassed into gang territory. Not being familiar with the area did not help our comfort level.The room was decently clean, but more like a motel. There were multiple deadbolts on the door. We felt very unsafe being there. We continued to hear people outside our room, and then the sound of keys being dragged on the metal railing, we felt like it was a signal (or something) that we were going to be robbed. We stayed for an hour before packing up our stuff, shaking, and compacted our luggage so we only had one trip out in fear we could be attacked on our way out.I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular instance for the man at the front desk.If it hadn't been so late, and being so tired we would have noticed the very trashy area with truckers everywhere. Do NOT stay here. Best Western or Holiday Inn are great places to go even closer to Magic Mountain without fearing for your life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r115338117-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>115338117</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Gross! Run as far away as you can! Yucky!</t>
+  </si>
+  <si>
+    <t>First, we booked two queen beds. We arrived and It was a super, I mean super, small room dingy, dimly lit room with two double beds. I told the management and he laughed and said we don't have queens here they could never fit. He didn't even apologize, offer me a discount, nothing. I should have left anyways, but it was getting late and the area was super creepy to me. The bed linens ALL had cigarette holes in them. They were covered in yellow stains underneath as well as ALL of the mattresses had yellow stains pouring down every side. Gross. I couldn't even sleep. I felt like my skin was crawling. I put my own sleeping bags on top of the beds avoiding contact of any kind with the sheets. I checked for bugs and didn't see any, but I was really creeped out. Don't even think about taking a shower or walking bare foot. It was that bad. The fridge didn't seal and smelt like mold. I could hardly wait til morning light to get out. I don't know how anyone could give this hotel any good rating at all. I am not at all snobby or snooty. I just want clean hotels and polite people. Not here at all. Don't find yourself in this part of town alone at night!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>First, we booked two queen beds. We arrived and It was a super, I mean super, small room dingy, dimly lit room with two double beds. I told the management and he laughed and said we don't have queens here they could never fit. He didn't even apologize, offer me a discount, nothing. I should have left anyways, but it was getting late and the area was super creepy to me. The bed linens ALL had cigarette holes in them. They were covered in yellow stains underneath as well as ALL of the mattresses had yellow stains pouring down every side. Gross. I couldn't even sleep. I felt like my skin was crawling. I put my own sleeping bags on top of the beds avoiding contact of any kind with the sheets. I checked for bugs and didn't see any, but I was really creeped out. Don't even think about taking a shower or walking bare foot. It was that bad. The fridge didn't seal and smelt like mold. I could hardly wait til morning light to get out. I don't know how anyone could give this hotel any good rating at all. I am not at all snobby or snooty. I just want clean hotels and polite people. Not here at all. Don't find yourself in this part of town alone at night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r68360896-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>68360896</t>
+  </si>
+  <si>
+    <t>06/22/2010</t>
+  </si>
+  <si>
+    <t>Terrible... Would not stay here again.</t>
+  </si>
+  <si>
+    <t>The room was dirty, no fitted sheets on the mattresses, dirty/stained carpet, lamp shades broken and dirty, bathroom ceiling had water spots, no shower head, toilet didn't flush, etc. etc.I would not stay here ever again, not even for free!  We had three different rooms at approx. $65 a night and they were all gross, made our skin crawl. Slept with the lights on.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r60484812-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>60484812</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Great rooms, an incredible truck stop experience</t>
+  </si>
+  <si>
+    <t>This hotel represents excellent value for money if you plan to (as we did) spend a full day at Six Flags Magic Mountain. This truck stop hotel is about a 10 minute drive away from 6 Flags, very easy to locate in Castaic.The rooms and service were really excellent - huge comfortable rooms and beds, everything was spotless and comfortable.The truck stop experience was a bit quirky, as we Brits don't know anything like this. We were a bit surprised, though, that most of the local shops (including Dominoes Pizza) closed business at 10pm. Wendy's was open later.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r54511168-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>54511168</t>
+  </si>
+  <si>
+    <t>01/27/2010</t>
+  </si>
+  <si>
+    <t>Yuck! Dont go here!</t>
+  </si>
+  <si>
+    <t>I had gone to TripAdvisor before booking this room, saw the 3.5 stars and thought, Looks good!  Boy was I wrong.  First off, how do you get 3.5 stars when 6 people said it was good, and 6 people said it was horrible?!?  Isnt that more like 1.5 stars, 2 at the most?!?Anyway, there were stains on the box spring, the bed didn't even have a fitted sheet, it was a flat sheet folded under to look like a fitted sheet.  The room was dirty, and loud (right under the stairs).  The heater made this horrible whining noise off and on all night long.  It was just bad.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r25510204-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>25510204</t>
+  </si>
+  <si>
+    <t>03/03/2009</t>
+  </si>
+  <si>
+    <t>Perfect Pit Stop</t>
+  </si>
+  <si>
+    <t>We are on a cross country trip from Oregon to North Carolina. We were very tired of driving and decided to get off I-5 before hitting rush hour traffic in LA. This truck stop town is the prefect pitstop and this hotel is a great deal. For $62 (AAA discount), we got a large, comfy, clean room with wi-fi. The continental breakfast was totally decent. And there are several places to eat within walking distance. The chinese restaurant across the street is surprisingly good! For price &amp; convenience, it cannot be beat. I'm sure there are some nice attractions in the area, but we must move on.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r25417583-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>25417583</t>
+  </si>
+  <si>
+    <t>03/01/2009</t>
+  </si>
+  <si>
+    <t>This is the place to stay.</t>
+  </si>
+  <si>
+    <t>I was really happy with your staff. They were very friendly to my husband and I when we stayed. We were having a rough day and it was nice having somewhere nice and relaxing to stay. The waffle bar in the morning was great and it held us over for a while. Your staff was very caring and helping to us throughout our 2 night stay.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r23955146-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>23955146</t>
+  </si>
+  <si>
+    <t>01/27/2009</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>This place stunk, literally. Non smoking room had burn holes in bed spread. Stains everywhere. My kids (13, 11, &amp;10yrs old) were basically traumatized. I just booked another trip and their first concern was that we definitely not stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r14893814-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>14893814</t>
+  </si>
+  <si>
+    <t>04/08/2008</t>
+  </si>
+  <si>
+    <t>Inexpensive, but not worth it!</t>
+  </si>
+  <si>
+    <t>We stayed at the Rodeway Inn Magic Mountain in Castaic for 1 night on our way to Disneyland. We were driving from Northern California and our plan was to drive as far as we could and then just find a place to stay along the way when it got late. I picked up one of those hotel coupon books at one of the rest stops on the 5 and figured Castaic would be a good place to stop for the night. The Rodeway Inn had a coupon for $69/nt so we decided to stop and stay there. What a mistake! 
+First the negatives:
+1. We had asked for a non-smoking room, but the room we got smelled like stale smoke and actually had an ashtray on the table. By that time we had already unloaded the car, it was late and just didn't want to bother with switching rooms.
+2. We checked in at about 9:30pm, but the maids were vacuuming the rooms on either side of us until about 10:30pm. 
+3. The room had definitely seen better days. The walls and carpets were stained, the sheets were paper thin and a few of the pillows had bloodstains on them. Luckily, we always travel with our own pillows so we didn't have to use them.
+Positives:
+1. The front desk staff was very friendly.
+2. The room included a free breakfast which consisted of several cereals, make your own waffles,...We stayed at the Rodeway Inn Magic Mountain in Castaic for 1 night on our way to Disneyland. We were driving from Northern California and our plan was to drive as far as we could and then just find a place to stay along the way when it got late. I picked up one of those hotel coupon books at one of the rest stops on the 5 and figured Castaic would be a good place to stop for the night. The Rodeway Inn had a coupon for $69/nt so we decided to stop and stay there. What a mistake! First the negatives:1. We had asked for a non-smoking room, but the room we got smelled like stale smoke and actually had an ashtray on the table. By that time we had already unloaded the car, it was late and just didn't want to bother with switching rooms.2. We checked in at about 9:30pm, but the maids were vacuuming the rooms on either side of us until about 10:30pm. 3. The room had definitely seen better days. The walls and carpets were stained, the sheets were paper thin and a few of the pillows had bloodstains on them. Luckily, we always travel with our own pillows so we didn't have to use them.Positives:1. The front desk staff was very friendly.2. The room included a free breakfast which consisted of several cereals, make your own waffles, juices, coffee, hot cocoa, milk, pastries and fruit.I'm surprised this hotel rated so high on Trip Advisor. The room we stayed in was at the front of the hotel. I wonder if the rooms toward the back of the property are nicer or newer? Even for the price, we won't be staying here again. After 6 hours on the road, we just wanted a clean, quiet place to lay our heads. Unfortunately, that's not what we got.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Rodeway Inn Magic Mountain in Castaic for 1 night on our way to Disneyland. We were driving from Northern California and our plan was to drive as far as we could and then just find a place to stay along the way when it got late. I picked up one of those hotel coupon books at one of the rest stops on the 5 and figured Castaic would be a good place to stop for the night. The Rodeway Inn had a coupon for $69/nt so we decided to stop and stay there. What a mistake! 
+First the negatives:
+1. We had asked for a non-smoking room, but the room we got smelled like stale smoke and actually had an ashtray on the table. By that time we had already unloaded the car, it was late and just didn't want to bother with switching rooms.
+2. We checked in at about 9:30pm, but the maids were vacuuming the rooms on either side of us until about 10:30pm. 
+3. The room had definitely seen better days. The walls and carpets were stained, the sheets were paper thin and a few of the pillows had bloodstains on them. Luckily, we always travel with our own pillows so we didn't have to use them.
+Positives:
+1. The front desk staff was very friendly.
+2. The room included a free breakfast which consisted of several cereals, make your own waffles,...We stayed at the Rodeway Inn Magic Mountain in Castaic for 1 night on our way to Disneyland. We were driving from Northern California and our plan was to drive as far as we could and then just find a place to stay along the way when it got late. I picked up one of those hotel coupon books at one of the rest stops on the 5 and figured Castaic would be a good place to stop for the night. The Rodeway Inn had a coupon for $69/nt so we decided to stop and stay there. What a mistake! First the negatives:1. We had asked for a non-smoking room, but the room we got smelled like stale smoke and actually had an ashtray on the table. By that time we had already unloaded the car, it was late and just didn't want to bother with switching rooms.2. We checked in at about 9:30pm, but the maids were vacuuming the rooms on either side of us until about 10:30pm. 3. The room had definitely seen better days. The walls and carpets were stained, the sheets were paper thin and a few of the pillows had bloodstains on them. Luckily, we always travel with our own pillows so we didn't have to use them.Positives:1. The front desk staff was very friendly.2. The room included a free breakfast which consisted of several cereals, make your own waffles, juices, coffee, hot cocoa, milk, pastries and fruit.I'm surprised this hotel rated so high on Trip Advisor. The room we stayed in was at the front of the hotel. I wonder if the rooms toward the back of the property are nicer or newer? Even for the price, we won't be staying here again. After 6 hours on the road, we just wanted a clean, quiet place to lay our heads. Unfortunately, that's not what we got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r10130317-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>10130317</t>
+  </si>
+  <si>
+    <t>10/18/2007</t>
+  </si>
+  <si>
+    <t>Thank you for serving our group of 200</t>
+  </si>
+  <si>
+    <t>We do a Six Flags trip every year and housing is always a challenge with groups over 200.  You provided us with the most competitive price and with a facility that had plenty of parking for our four buses.  It looked like your parking lot could hold a dozen buses with plenty of room to spare.  Your updated breakfast area was a real treat.  We have had our fill of complimentary breakfast before, but that usually consisted of a bear claw and a cup of old coffee.  The Rodeway Inn’s idea of breakfast was waffles and cereal and a selection of juice, coffee and the most impressive part was that it did pretty well with our crowd.  I usually don’t get to eat breakfast because of this group, but even I got to enjoy a hot waffle and a cup of guava juice.  Many thanks to the staff of the Rodeway Inn of Castaic CA; we appreciate your hard work and interest in providing a good experience to all who stay within your walls.MoreShow less</t>
+  </si>
+  <si>
+    <t>We do a Six Flags trip every year and housing is always a challenge with groups over 200.  You provided us with the most competitive price and with a facility that had plenty of parking for our four buses.  It looked like your parking lot could hold a dozen buses with plenty of room to spare.  Your updated breakfast area was a real treat.  We have had our fill of complimentary breakfast before, but that usually consisted of a bear claw and a cup of old coffee.  The Rodeway Inn’s idea of breakfast was waffles and cereal and a selection of juice, coffee and the most impressive part was that it did pretty well with our crowd.  I usually don’t get to eat breakfast because of this group, but even I got to enjoy a hot waffle and a cup of guava juice.  Many thanks to the staff of the Rodeway Inn of Castaic CA; we appreciate your hard work and interest in providing a good experience to all who stay within your walls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r8208570-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
+  </si>
+  <si>
+    <t>8208570</t>
+  </si>
+  <si>
+    <t>07/20/2007</t>
+  </si>
+  <si>
+    <t>Rodeway Inn Close to Magic Moutain</t>
+  </si>
+  <si>
+    <t>The four of us stayed at the Rodeway on 7/15/07 in room 122 by the pool. It was nice and clean and roomy. The cont. breakfast was just okay as most are just that. On our return  7/18/07 we were in room 112 bad news. I should have requested another room. It was late upon our arrival so we just dealt with it. The carpet was badly stained. The curtains haphazardly hung. The bathroom counter,the nightstand counter both had cigarette burns. The bedspread also had a burn on the underside. The next morning I did inform the desk clerk of the condition of the room. He made a note in the computer. So if you stay here, be sure to request a room around the pool.On the up side it was very close to Magic Mountain.There was a Starbucks and a Wamu right up the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>The four of us stayed at the Rodeway on 7/15/07 in room 122 by the pool. It was nice and clean and roomy. The cont. breakfast was just okay as most are just that. On our return  7/18/07 we were in room 112 bad news. I should have requested another room. It was late upon our arrival so we just dealt with it. The carpet was badly stained. The curtains haphazardly hung. The bathroom counter,the nightstand counter both had cigarette burns. The bedspread also had a burn on the underside. The next morning I did inform the desk clerk of the condition of the room. He made a note in the computer. So if you stay here, be sure to request a room around the pool.On the up side it was very close to Magic Mountain.There was a Starbucks and a Wamu right up the street.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1749,3521 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s">
+        <v>277</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>339</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>365</v>
+      </c>
+      <c r="O52" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>367</v>
+      </c>
+      <c r="J53" t="s">
+        <v>368</v>
+      </c>
+      <c r="K53" t="s">
+        <v>369</v>
+      </c>
+      <c r="L53" t="s">
+        <v>370</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>371</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" t="s">
+        <v>374</v>
+      </c>
+      <c r="K54" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>377</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12995</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
+      <c r="K58" t="s">
+        <v>399</v>
+      </c>
+      <c r="L58" t="s">
+        <v>400</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_676.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sally R</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Erlinda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r569583573-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>VanEsq12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r550323014-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Mario D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r541028569-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Kenneth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r535092676-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r506627729-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Angie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r504468246-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>My son was here last night for the weekend, when he got there he said the room smelled like mildew when he went into the room he said the carpet was wet and the ceiling had fell in! They had no other room to offer him all the hotels I. The area were filled so he had to sleep in his car! All they offered was a refund and they said it would be a few days before he can get it back!!! Stay away from this place should be condemned! It only gets a circle cause I had to put something in order to review!!!!</t>
   </si>
   <si>
+    <t>Kenya J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r500100551-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>So I saw the reviews and almost all of it seemed horrible so I was a bit worried to be honest ....well I got there and yes the building looks a bit outdated 2 of the employees (Asian girl and another man ) seemed rude. I requested a room downstairs but I came late (after check in time at 2)and ended up getting a room downstairs so I had to carry a big suitcase up stairs smh I had to request to get a receipt because one was never given to me I just Got a card and a piece of paper saying my my check in date and ect But honestly the room was clean I requested a "Non smoke" room with king size bed so I didn't get any odor or burn marks in any shape or form. I enjoyed myself the pool was a bit crowded with kids but it was fine. More</t>
   </si>
   <si>
+    <t>Deewee32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r497538372-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>My son and I took a quick trip from Canada to SoCal to visit Magic Mountain.  We were looking for very simple accommodation.  Basically we wanted a clean, non-smoking, room with good AC and a clean bed....Frankly, I can sleep anywhere so a fancy bed makes no difference to me at all.  I booked the Rodeway, knowing that it was basic, no frills, and affordable.  By affordable I mean it was 20.00 cheaper per night than some of the hotels a bit closer to the park.Our non-smoking room smelled as though the previous guest was a chainsmoker and smoked in the room.  The walls, if not black from dirt, were yellow from smoke.  The counter tops had cigarette burns all over them.  The bedding had cigarette burn holes throughout.  The door frames, bathrooms, etc. were filthy.  I would not take off my socks at all because the floor was disgusting.  In fact, my white socks were black with dirt after walking with them in the room.  The shower/tub was falling apart as was the light fixture in the bathroom.  Electrical wire showing, etc.   The only positive was that the AC worked.  The breakfast that was included was basically some waffle irons and cereal.  I would NEVER stay here again.  I would have been better off sleeping in my car.More</t>
   </si>
   <si>
+    <t>wzrdozfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r439594360-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>Here's the lowdown!  First we booked 3 rooms (thru Expedia) 10 people total.  2 rooms, king beds are given 2 towels.  The third queen room (which was full beds) are given 3 towels for 4 people.  Every night, we have to go downstairs (&amp; Pray JOSH was not there, he's the RUDEST of all) and ask for more towels.  Don't you dare ask for an extra blanket, because you're only allowed 1 extra for the 2 beds.Fortunately our room didn't smell, could it be that I brought an air freshner with?  We're on  the 2nd floor, one minor earthquake &amp; we would have been on the ground!!  The stairways are slanted &amp; you bounce &amp; sink while walking on them or the walkway.  There's also no elevator,  so you have to walk past the "druggies" partying on the stairs when you come back.  Don't expect parking, semi trucks take up most of the lot.  The parking lot is super dark and does not feel safe at all.WIFI is available LOL.  You get one code per person per day (Don't let JOSH tell you the same code is good for your entire party &amp; entire stay).  BOTTEM LINE FIND ANOTHER PLACEMore</t>
   </si>
   <si>
+    <t>katlinheier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r435057131-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>MrsBrown0220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r422967055-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>I know that bad reviews are fairly common for this property but I thought ehhh...how bad could it be?  It is by far the worst hotel/motel have ever been in.  Do not stay here no matter how cheap the rate is.  Not worth any price.  The place should be condemned.  Broken tile floors, filthy carpets, stained furniture, lamps are torn up and don't work.  Cockroaches, peeling walls, dirty sheets and towels with trash left on the floor.  I know that you work in a crap hole of a hotel but you could at least offer decent customer service.  Josh was sitting on the counter when I walked in and treated everyone with complete disregard.  Horrible employees at the front desk.  You should be ashamed of yourselves and embarrassed to not only work in a bait and switch disgusting motel but to act like complete rude dirt bags.  AVOID THIS PROPERTY AT ALL COSTS.  You can barely breath in their filthy rooms and basically tell you, its not their problem and they don't care.  We commiserated with numerous people staying there around us about how cheated they felt and many of them slept in cars rather than the stinky, scary rooms.  Pay $30.00 more and stay someplace decent.  This place really should be shut down.More</t>
   </si>
   <si>
+    <t>Jessica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r413185817-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>We were traveling and needed to stop for the night. We didn't want to pay a ton so we thought we would settle for this place. It's a shady place. I felt unsafe. There were several people hanging around outside. We walked in and the first thing we saw was a used tissue or paper towel on the floor by the a/c and door.  The curtains have holes in them.  The comforter looks and smells like it is from the seventies. It also has holes in it!  The couch also looks and smells like it is from the seventies. The tissue holder is falling apart. The bathtub hair stopper piece came off.  There are ceiling repairs in the bathroom that looked awful. The bed was not comfortable. I will not be staying here again!More</t>
   </si>
   <si>
+    <t>Marchelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r401536930-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>My daughter-in-law, granddaughter and I went to a bridal shower for my soon-to-be granddaughter in California.  My son made the reservation through HotWire.  We asked for a non-smoking room with 2 beds on the ground floor..  We were given a smoking room with one bed!  My daughter-in-law went to the office where, after an hour, they "found" us a room for an additional fee!  Too be fair, the fine print on the reservation did say the motel has the right to choose your room and fees are non-refundable.  We were not aware of this agreement with Hotwire.  We got into our room and had to ask for cleaning supplies to wipe the dust off everything.  We went to the shower - thank goodness my daughter-in-law brought a steamer for our clothes as the iron was missing.  We hung the "Do not disturb" sign when we left, but somehow the iron fairy showed up while we were gone and put an iron in the holder.. Needless to say, we will not use Hotwire or stay at this Rodeway Inn again.More</t>
   </si>
   <si>
+    <t>sdblue48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r400848847-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -447,6 +492,9 @@
     <t>This is one that I say "you get what you pay for".  The rooms was cheap, not only in cost but also in comfort.  It did the job for a one night stay but I wouldn't stay there any longer.  The staff was courteous but not overly friendly.  I'd skip the breakfast buffet and go across the street to Mike's Diner.  The food there was very good.</t>
   </si>
   <si>
+    <t>Patricia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r391246518-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>The place was ok for less than $100.  The lady in front desk was very friendly gave us information about nearest beach. decent breakfast! many stores around was great! lights out the parking lot. Our room needed some work done but for the price I paid it was ok</t>
   </si>
   <si>
+    <t>Bellamodehaute</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r390873297-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now...We stayed overnight upon check in the clerk tried charging me twice $94.00 (two double beds room non smoking).  We were sent to room 240 the room was open.  I called the front desk and asked if it is normal for the door to be left wide open. He stated: housekeeping must have left it open to air it out and we were okay. We left to go get dinner and closed the door.  By the time we returned and opened the door the room smelled of urine and cigarette smoke.  We expected an old room and saw that the carpets were lifted and worn. We didn't think anything of it.  we just assumed there must have been a water leak in the past based on the ceiling and carpet. Although we paid extra for non-smoking, I didn't want to complain because it was late. it was only for a night and I thought we could tough it out.  When it was time to go to bed we finally laid in bed the mattresses were what smelled of urine.  I unfortunately didn't go with all the red flags and gut instinct and leave.  I didn't want to over react and be to picky so I got towels and laid them over the cleaner bed we slept on that bed I figured it would only be a few hours.  My young son and I woke up with a rash and now I'm taking him to urgent care.  More</t>
   </si>
   <si>
+    <t xml:space="preserve">azsnakeguy </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r390256355-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -498,6 +552,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kelsey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r381198332-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -519,6 +576,9 @@
     <t>Cleanliness: we found a key on the floor. It wasn't hidden in a corner or anything so this makes me doubt the quality of housecleaning. What else was left on the floor after housecleaning "cleaned"?. We also saw a few bugs on the ceiling.Repair: Curtains, chair cushions had holes and rips. Half of the lights/lamps in the room never turned on. Mattress: We booked a room with 2 queen mattresses but received a room with 2 extremely tiny (maybe a little larger than twin) mattresses. It was hard to fit our group in there! Mattress sizes are standard so this was a huge goof on the hotel's partBathroom: The shower head was awkwardly placed. I (a relatively short person at 5'5") had to bend down to wash my face in the shower. Breakfast: Waffle maker didn't work well. And waffles was all they had for breakfast. Absolutely no fruit or protein. Internet: Had to input internet code every time you opened a new link. Even if your phone went to sleep it disconnected from the internet. Definitely was not high speed.More</t>
   </si>
   <si>
+    <t>alian5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r373881410-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -537,6 +597,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>JeannChris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r373430744-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -552,6 +615,9 @@
     <t>Card reader did not work on the door.  Front desk said keep trying. It took us approx 10 times each time we tried to enter room.  Towels and sheets clean but rest of room very shabby and dirty with stains, torn bedspread, exposed safety pin sticking out of bed skirt. Room next door was smoking, so we had plenty of odor.  Continental breakfast was very bare bones compared to similar hotels.  The only good thing about this place is proximity to Magic Mountain if you need a crash pad.  I wish I would have spent a little more for better quality.  Plenty of restaurant choices nearby.</t>
   </si>
   <si>
+    <t>Frecklechops31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r356132428-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -573,6 +639,9 @@
     <t>We stopped off here on the way to Yosemite, and also to visit Six Flags Magic Mountain which is only 5 miles south. It served it's purpose.Castaic isn't the prettiest of places, more of a truck stop really. But this motel suited our needs, the room was clean &amp; the staff were very friendly and accommodating! I guess you could say the room was a bit dated, but the beds were comfortable &amp; I couldn't fault it.The only issue I could see was that we were in a room on the road side, and there were lorries pulling in until quite late into the night. Still didn't affect sleep quality too much. The room was secure enough, chain and deadbolt, and we got parked right outside.Breakfast was provided and was a little simple with little choice but we weren't expecting an extravagant spread from a simple motor hotel! From reading some of the other reviews, I think people just like to complain about things.We did visit the lake which is only a 5 minute drive away and it was very lovely!More</t>
   </si>
   <si>
+    <t>45ronaldd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r346311023-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -591,6 +660,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>john v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r323195454-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Eileen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r319812406-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -624,6 +699,9 @@
     <t>Old accommodation but clean.  The breakfast was limited, there was waffles but no pastries or yogurt. Also limited seating in the breakfast area.. Had trouble with the card key working, had to have the card reprogrammed</t>
   </si>
   <si>
+    <t>Ken N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r294138325-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -642,6 +720,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Clorissa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r292211680-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -660,6 +741,9 @@
     <t>We just stopped by for a cheap overnight stay. And well, you get what you pay for. For $85 bucks it's a bit pricey, for a cheap motel. A double bed that's a full size. You can actually feel the springs poking at your back. Its more like a cheap cot, then a mattress. The toilet bowl lid was stained yellow and smelled of underarm pit. Yuk! The bath tub was a bit scary, because the paint was chipping off in large pieces. So you couldn't take a bath, if you wanted to. Because you could possibly cut yourself. The free breakfast was a bust. They only had bread/toast, 2 kinds of cold ceral, 1 waffle maker, (which took forever to wait for since there was a line) orange juice and coffee. So it wasn't nothing special.But on the upside, the was bedroom area was clean. (A bit dated but okay) The towels were bleached white, so they were clean. Its ok, if you got nowhere else to go. But I wouldn't recommend it. More</t>
   </si>
   <si>
+    <t>DonHofer1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r269684016-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -678,6 +762,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>R C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r263156257-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -699,6 +786,9 @@
     <t>I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but...I booked here on short notice and chose it because of the location.  Granted,  Castaic is limited, to be sure, and I was fully aware of all rating for the few hotels in this area.  Seriously, I regretted making this booking online on the fly.  The grounds are in horrible shape.  It is as if the landcaping crew just left abruptly during the apocalypse and never returned.  The condition of the exterior of the building and the landscaping are appalling.  If I had not already committed online, I would have done something different.  There are mushy-footing places on the second story landings, cracked concrete and a serious need for a paint job in addition to some major weed pulling and trimming that needs to be done on the grounds.  Castaic is always kind of scrubby in areas,  but the condition of the grounds and exterior really say the owners have either a lack of pride or a serious lack of funds to maintain the property.  My room was very dated, but overall fairly clean for the level of wear.  Walls and baseboards need to be scrubbed and painted, but it is OK if you are only passing through for one night.  I definitely did not feel unsafe here and the desk staff were nice, but I did feel as if I was spending the night in 1982.  Upshot: the room I had was passable for less than 24 hours, but it is obvious there is a lack of investment in the property that is a little alarming.  The price was right- and you get what you pay for!More</t>
   </si>
   <si>
+    <t>Jeffery H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r262102186-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -720,6 +810,9 @@
     <t>I am sitting in room 121 right now. When I checked in yesterday, the front desk clerk was very friendly and efficient. I went to my room and ran into a young lady who was VERY friendly. I think she was a working girl, but she didn't offer anything, so not sure. The Russian gents in tge room next door did manage to find a working girl though.My room is clean. The bedding is very clean. The room smells of some cleaner that most of these budget motels use. Not too pleasant. My room has a coffee machine and an iron. This is an area of truck stops, and as such you would expect noise, but suprisingly it was pretty quiet in my room. There are a lot of foid options within easy walking distance. Checkout is at noon! Free breakfast including waffles, cereal, toast, fruit juice and coffee.If you are expecting luxury, head on down the road. If you are looking for economy, this may be your place. Just for information, I stay in hotels and motels on business about 250 nights a year. More</t>
   </si>
   <si>
+    <t>DarkRyder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r228234707-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -738,6 +831,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Darling070</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r219930023-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -759,6 +855,9 @@
     <t>My boyfriend and I stay here every time we go to Six Flags. Its the cheapest in the Six Flags area and it comes with the waffle maker in the morning. Its about as basic as you're going to get. Its safe, beds are hard, smells kind of smokey. Its about a step down from a Motel 6, maybe about the same (I've seen some nice motel 6's in my day). But if you want to focus on just using it as a place to sleep it serves it's purpose. If you are bringing kids and want a pool and a nice day in at the hotel then this is not the hotel for you.More</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r218117138-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -777,6 +876,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>LGriss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r188379094-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -798,6 +900,9 @@
     <t>I do not see how Magic Mountain is allowing this hotel to represent them with there name tag. The hotel is horrible, I MEAN HORRIBLE!! We had kids with us and the bed they slept in had burnt blanket holes in them we didn't notice till the kids pointed that out. So we asked receptionist for another blanket and pillow. I spread the other blanket out it had even more burnt holes in them...REALLY!! The bathroom was just the nastiest thing i have ever saw. I did not let anyone get in that shower. It was so stained with who knows what. The bathroom door seems someone had punched a whole in it and they tried to plaster it back up with a horrible job. I could go on and on, but just not worth the time. Since it was so late at night we had no choice but to put the kids down and sleep and wake up to get the hell out of this hotel. Now for breakfast, it consisted of 1 waffle machine, some bread for toast and cereal. We just ate a waffle and left it at that. I should of took pics to show the horribleness of hotel, I was so tired and fed up, just wanted to get out of there.More</t>
   </si>
   <si>
+    <t>jerrya94501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r182214263-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>This, without question, was the worst hotel we have stayed at in The U.S. and maybe ever. The location isn't the best but then you are where you are. The room however was dirty, including playboy thong underwear left by a previous guest. Housekeeping had apparently dumped a bucket of dirty cleaning water into the sink and fail to rinse it out. The carpet was filthy and the drapes were hanging off the hook.In order to escape the dismal surroundings of the room we took a bottle of wine to the pool area and sat on poorly maintained patio furniture. After a glass of wine the world seems to calm down but we were rudely reminded of our location when a RAT ran under our table and into the bushes next to the fence. Unfortunately we didn't read the reviews on this and other travel sites before staying here. The vast majority of the reviews tell pretty much the same tale. This was my first, and probably last, stay at a Rodeway Inn. Choice Hotels must get it's name off this facility ASAP.More</t>
   </si>
   <si>
+    <t>Gary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r182160660-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -837,6 +945,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>dv50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r171671834-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -858,6 +969,9 @@
     <t>We had the misfortune of spending one sleepless night here last weekend.  We were in LA on sat night and could not get a room.  I called choice hotels looking for a comfort inn or qualilty inn, but nothing to be found.  The representive found me this room and since it was late and we were desperate we took it.  If I had read these other reviews first, we would have just slept in our car.  The room was filthy.  The carpet and the mattresses were old and dirty, and the tub was so disgusting that none of us even showered. I don't know if all Roadway Inns are this bad since I never stayed in one before, but I sure won't try another one to find out.  I am surprised that Choice Hotel brands even endorses this place.  Usually we get a really nice room by calling them.  The only good thing I can say is that I watched the maid strip the beds right down to the mattress [including the comforter-which not all hotels wash every day] so at least the sheets were clean.  Still didn't make me feel much better seeing how these sheets were put back on a filthy mattress.More</t>
   </si>
   <si>
+    <t>Spcortez4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r169363951-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -871,6 +985,9 @@
   </si>
   <si>
     <t>Don't even think that it's just a night.  Keep looking there is better and more affordable. There are blood stains all over the rooms, beds and linens. Air conditioners don't work. Lobby looks cleans but smells awful. Food not worth the risk. Like I said keep looking don't stay here.</t>
+  </si>
+  <si>
+    <t>559MoM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r164336007-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
@@ -898,6 +1015,9 @@
 My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice,...If you want a clean place to sleep with good customer service at a price under $100 (most nights, I paid $72 after AAA discount), this is the place. Check-in was fast and pretty friendly. Mike was very kind and welcomed our last minute stay during the late night. We got room 116 and it was clean and smelled fresh. There was no blood or other body fluid that I could see first hand but there was a large puddle of water in the restroom. It was very late and we had no plans to sleep in the restroom so we didn't bother to call to complain. The room was a good size and came with the common amenities but did not have a fridge or microwave. We were doing our "room check" for any creepy things and we noticed a little box in the corner, a little concerned I checked it out to find it was a thermostat of some sort. The sheets were clean and the pillows were fine. It was a very comfortable sleep, quiet, dark and the AC was a bit loud but worked well. My favorite thing about this place, beside the good customer service was the check-out time, NOON! Thats not common especially around theme parks. Speaking of which, Six Flags Magic Mountain is about a ten minute drive. The breakfast was ok and my kids enjoyed the fresh waffles and real orange juice, there was also a selection of cereal and other juices. The eating area was clean and had plenty of space. Ice was free and the pool was heated and also clean. Check-out was very fast and the man at the counter seemed genuinely concerned that a pipe was broken and leaking in our room. He was very cordial and checked me out quickly. A pair of shoes my son left in the room were put aside and held for the 9 hours it took for me to pick up. I appreciated the staff making the effort to find them and see that they were returned. This place is located across the street from a fabulous diner called Mike's that closes at 10, check it out. The parking is a little tight but ample. I can recommend if you're on a budget and aren't seeking luxury.More</t>
   </si>
   <si>
+    <t>WintersBiggbirdd58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r158588018-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -916,6 +1036,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>WendyMomOfThree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r158283966-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -934,6 +1057,9 @@
     <t>Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on....Ok, so I stay at a roadway is near Knotts Berry Farm all the time. My family and I love it and never have any problems there.So when I booked this hotel I was really not concerned about the poor reviews I had read because I've always had a good experience with them. When I called to book my hotel I asked if there were microwaves and refrigerators in the room and they said no, but if I upgraded I could get a room that would have these items. Well, what I got was a tiny little box for a refrigerator that was so broken I could hardly put anything in it. My kids and I joked that Barbie must have put it outside of her condo for trash day, and this hotel had picked it up...  The "dresser" that the TV Sat on, was not a dresser at all but a old buffet that would have been in the Haunted Mansion dining room. As for the heated pool, it was freezing cold... No hot tub either.. This is a hotel for traveling truckers... And I have nothing against a working man or women at all.. But they deserve better too.. When I drove around the building to get closer to my room to check out and pack up the car,  what I saw was about 30 big rig trucks and at least 10 of them men were working on.  It was noisy.  As for the continental breakfast,  toast, ceral, waffles, the end...  my trip was planned for four days, I stayed 2 checked out, and went up the street to the Days Inn and checked in. In my research of where to stay when going to Six Flags Magic Mountain, I would say Days inn Castaic, or Comfort Inn Stevenson Ranch..  Forget about this one...    More</t>
   </si>
   <si>
+    <t>Deeluvsg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r145933715-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -952,6 +1078,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Karsten W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r130134525-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -973,6 +1102,9 @@
     <t>I stayed at the Rodeway Inn for one night before spending a day at Six Flags Magic Mountain. The motel is not in the immediate vicinity of the park. It is a 10 minute drive from Castaic to Six Flags. The motel seemed to be frequented mostly by truck drivers and contractors. All the businesses on that street seem to cater to that clientel. Registered guests at the Rodeway Inn can purchase Six Flags tickets for 31$ instead of the 61$ due at the park box office. That is a good deal. The motel itself has seen better days. The building is old and it shows, despite all maintenance and cleaning efforts. My room was spaceous with a little seating area, had a big screen tv and plenty of electrical outlets for computers and chargers. The AC unit was the loudest I have ever heard. Luckily the night was cool enough to sleep without AC. Sleep quality, cleanliness, breakfast, staff friendliness...everything was ok for a one night stay.More</t>
   </si>
   <si>
+    <t>ossykid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r127501554-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -991,6 +1123,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Ruprik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r121032498-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1006,6 +1141,9 @@
     <t>Nasty.  The carpet gives your clean feet the heebee-jeebies.  The bed is peculiarly both hard and lumpy. Pillows are 1 inch thick and made of a smelly foam-like material.  It's your worst Motel 6 experience recreated at twice the price.</t>
   </si>
   <si>
+    <t>Mickie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r117202322-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1022,6 +1160,9 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>Deenaandsean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r115636780-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
@@ -1051,6 +1192,9 @@
 I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular...My husband and I checked in last night at 9:30pm, we were tired and ready to go to bed as soon as we checked in. While carrying our luggage to our room we noticed a very sketchy looking man in the parking lot, who looked like just did a drug deal. The door to his hotel room was wide open and completely trashed. It looks like he has lived there for months. We walked very fast upstairs to our room, and were welcomed by a group of men that just stared us down as we hurried in our room with scowls on their faces. We felt like we had just trespassed into gang territory. Not being familiar with the area did not help our comfort level.The room was decently clean, but more like a motel. There were multiple deadbolts on the door. We felt very unsafe being there. We continued to hear people outside our room, and then the sound of keys being dragged on the metal railing, we felt like it was a signal (or something) that we were going to be robbed. We stayed for an hour before packing up our stuff, shaking, and compacted our luggage so we only had one trip out in fear we could be attacked on our way out.I asked for a full refund, and got it with no problem. That we really appreciated, but it came across as a regular instance for the man at the front desk.If it hadn't been so late, and being so tired we would have noticed the very trashy area with truckers everywhere. Do NOT stay here. Best Western or Holiday Inn are great places to go even closer to Magic Mountain without fearing for your life.More</t>
   </si>
   <si>
+    <t>melitabritta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r115338117-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1072,6 +1216,9 @@
     <t>First, we booked two queen beds. We arrived and It was a super, I mean super, small room dingy, dimly lit room with two double beds. I told the management and he laughed and said we don't have queens here they could never fit. He didn't even apologize, offer me a discount, nothing. I should have left anyways, but it was getting late and the area was super creepy to me. The bed linens ALL had cigarette holes in them. They were covered in yellow stains underneath as well as ALL of the mattresses had yellow stains pouring down every side. Gross. I couldn't even sleep. I felt like my skin was crawling. I put my own sleeping bags on top of the beds avoiding contact of any kind with the sheets. I checked for bugs and didn't see any, but I was really creeped out. Don't even think about taking a shower or walking bare foot. It was that bad. The fridge didn't seal and smelt like mold. I could hardly wait til morning light to get out. I don't know how anyone could give this hotel any good rating at all. I am not at all snobby or snooty. I just want clean hotels and polite people. Not here at all. Don't find yourself in this part of town alone at night!More</t>
   </si>
   <si>
+    <t>aztsavage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r68360896-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1090,6 +1237,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>ronaldx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r60484812-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1108,6 +1258,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>babigrl111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r54511168-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1126,6 +1279,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>GlobalGypsy00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r25510204-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1144,6 +1300,9 @@
     <t>March 2009</t>
   </si>
   <si>
+    <t>taylorkeily13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r25417583-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1162,6 +1321,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>FamTraveler05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r23955146-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1178,6 +1340,9 @@
   </si>
   <si>
     <t>December 2008</t>
+  </si>
+  <si>
+    <t>SkysMama</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r14893814-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
@@ -1212,6 +1377,9 @@
 2. The room included a free breakfast which consisted of several cereals, make your own waffles,...We stayed at the Rodeway Inn Magic Mountain in Castaic for 1 night on our way to Disneyland. We were driving from Northern California and our plan was to drive as far as we could and then just find a place to stay along the way when it got late. I picked up one of those hotel coupon books at one of the rest stops on the 5 and figured Castaic would be a good place to stop for the night. The Rodeway Inn had a coupon for $69/nt so we decided to stop and stay there. What a mistake! First the negatives:1. We had asked for a non-smoking room, but the room we got smelled like stale smoke and actually had an ashtray on the table. By that time we had already unloaded the car, it was late and just didn't want to bother with switching rooms.2. We checked in at about 9:30pm, but the maids were vacuuming the rooms on either side of us until about 10:30pm. 3. The room had definitely seen better days. The walls and carpets were stained, the sheets were paper thin and a few of the pillows had bloodstains on them. Luckily, we always travel with our own pillows so we didn't have to use them.Positives:1. The front desk staff was very friendly.2. The room included a free breakfast which consisted of several cereals, make your own waffles, juices, coffee, hot cocoa, milk, pastries and fruit.I'm surprised this hotel rated so high on Trip Advisor. The room we stayed in was at the front of the hotel. I wonder if the rooms toward the back of the property are nicer or newer? Even for the price, we won't be staying here again. After 6 hours on the road, we just wanted a clean, quiet place to lay our heads. Unfortunately, that's not what we got.More</t>
   </si>
   <si>
+    <t>redmtn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r10130317-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
   </si>
   <si>
@@ -1228,6 +1396,9 @@
   </si>
   <si>
     <t>We do a Six Flags trip every year and housing is always a challenge with groups over 200.  You provided us with the most competitive price and with a facility that had plenty of parking for our four buses.  It looked like your parking lot could hold a dozen buses with plenty of room to spare.  Your updated breakfast area was a real treat.  We have had our fill of complimentary breakfast before, but that usually consisted of a bear claw and a cup of old coffee.  The Rodeway Inn’s idea of breakfast was waffles and cereal and a selection of juice, coffee and the most impressive part was that it did pretty well with our crowd.  I usually don’t get to eat breakfast because of this group, but even I got to enjoy a hot waffle and a cup of guava juice.  Many thanks to the staff of the Rodeway Inn of Castaic CA; we appreciate your hard work and interest in providing a good experience to all who stay within your walls.More</t>
+  </si>
+  <si>
+    <t>Bdbc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32182-d78680-r8208570-Rodeway_Inn_Magic_Mountain_Area-Castaic_California.html</t>
@@ -1753,43 +1924,47 @@
       <c r="A2" t="n">
         <v>12995</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1803,50 +1978,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>12995</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1860,50 +2039,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>12995</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1917,50 +2100,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>12995</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1974,50 +2161,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>12995</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2031,50 +2222,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>12995</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2088,50 +2283,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>12995</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2145,50 +2344,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>12995</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2202,50 +2405,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>12995</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2263,50 +2470,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>12995</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2326,50 +2537,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>12995</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2383,50 +2598,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12995</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2446,50 +2665,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12995</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2503,50 +2726,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12995</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2566,50 +2793,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>12995</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2627,50 +2858,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>12995</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2684,50 +2919,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>12995</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2741,50 +2980,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>12995</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2798,50 +3041,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>12995</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2859,50 +3106,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>12995</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2922,50 +3173,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>12995</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2985,50 +3240,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>12995</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3048,50 +3307,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>12995</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3109,50 +3372,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>12995</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3166,50 +3433,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>12995</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3227,50 +3498,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>12995</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3290,50 +3565,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>12995</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3347,50 +3626,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>12995</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3404,50 +3687,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>12995</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3465,50 +3752,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>12995</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3522,50 +3813,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>12995</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3579,50 +3874,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>12995</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3642,50 +3941,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>12995</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3705,50 +4008,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>12995</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3772,50 +4079,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>12995</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3839,50 +4150,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>12995</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3906,50 +4221,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>12995</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3971,41 +4290,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>12995</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -4034,50 +4357,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>12995</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4101,50 +4428,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>12995</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4166,50 +4497,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>12995</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4223,50 +4558,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>12995</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4290,50 +4629,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>12995</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O44" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4357,50 +4700,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>12995</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>360</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4424,41 +4771,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>12995</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -4487,50 +4838,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>12995</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="J47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="K47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4550,50 +4905,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>12995</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>380</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="J48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4613,50 +4972,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>12995</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4676,50 +5039,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>12995</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>396</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4743,50 +5110,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>12995</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>403</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4810,50 +5181,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>12995</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>410</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -4877,50 +5252,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>12995</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>417</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -4944,50 +5323,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>12995</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>424</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5011,50 +5394,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>12995</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>431</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5078,41 +5465,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>12995</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -5131,41 +5522,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>12995</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5194,50 +5589,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>12995</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>452</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5261,7 +5660,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
